--- a/02_workspace/01_study/03_Light_field_camera/LFC_review.xlsx
+++ b/02_workspace/01_study/03_Light_field_camera/LFC_review.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -393,12 +393,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -415,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +439,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,7 +760,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -783,7 +792,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">

--- a/02_workspace/01_study/03_Light_field_camera/LFC_review.xlsx
+++ b/02_workspace/01_study/03_Light_field_camera/LFC_review.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Light Field Cameraによる三次元計測の論文</t>
     <rPh sb="21" eb="24">
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メモ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>視差を用いた測定では、実距離測定では200cm以降の推定は困難</t>
     <rPh sb="0" eb="2">
       <t>シサ</t>
@@ -219,70 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使用するカメラの個体ごとに綿密な奥行き校正を行う必要があることと、視差画像間での構成店や着目点のシフト量が微小であることから、精度を維持したリアルタイム計測は困難</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コタイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>メンミツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>オクユ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シサ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>チャクモク</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ビショウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>セイド</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>イジ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ケイソク</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>コンナン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ライトフィールド画像処理による粒子計測システムの開発</t>
   </si>
   <si>
@@ -355,13 +287,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ライトフィールドカメラではないが、リアルタイム計測には有用</t>
-    <rPh sb="23" eb="25">
-      <t>ケイソク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ユウヨウ</t>
-    </rPh>
+    <t>リンク</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -393,18 +319,12 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -440,7 +360,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F5634D-4EED-4F72-AFFF-49A05C07B3EF}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -788,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
@@ -799,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
@@ -810,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
@@ -818,10 +738,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
@@ -829,23 +749,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="63" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -854,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
@@ -865,18 +782,50 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>